--- a/Shared Libraries/APSSTemplates/APSS BOM Template.xlsx
+++ b/Shared Libraries/APSSTemplates/APSS BOM Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vontier-my.sharepoint.com/personal/filipk_invenco_com/Documents/Documents/APSS-Reference-PCBs/Shared Libraries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vontier-my.sharepoint.com/personal/filipk_invenco_com/Documents/Documents/APSS-Reference-PCBs/Shared Libraries/APSSTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BB9DF1E4-5EE3-4857-84AF-92CD1321BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E606942-CEB7-4AF8-A26B-05FCD0F64A88}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BB9DF1E4-5EE3-4857-84AF-92CD1321BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BAD957D-C698-47C9-87C8-56CBFF4EED60}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{8143E680-549F-46F0-B77E-A70799F379B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8143E680-549F-46F0-B77E-A70799F379B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,13 +92,13 @@
     <t>Field=Project</t>
   </si>
   <si>
-    <t>Field=PCBName</t>
-  </si>
-  <si>
-    <t>Field=PCBRevision</t>
-  </si>
-  <si>
-    <t>Field=PCBDesigner</t>
+    <t>Field=DesignName</t>
+  </si>
+  <si>
+    <t>Field=BoardRevision</t>
+  </si>
+  <si>
+    <t>Field=Designer</t>
   </si>
 </sst>
 </file>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B358C88E-7CF8-41D0-B20D-DBF0AE37A859}">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Shared Libraries/APSSTemplates/APSS BOM Template.xlsx
+++ b/Shared Libraries/APSSTemplates/APSS BOM Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vontier-my.sharepoint.com/personal/filipk_invenco_com/Documents/Documents/APSS-Reference-PCBs/Shared Libraries/APSSTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{BB9DF1E4-5EE3-4857-84AF-92CD1321BAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BAD957D-C698-47C9-87C8-56CBFF4EED60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE781ED5-DEC3-4432-A6B6-20D209397375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8143E680-549F-46F0-B77E-A70799F379B4}"/>
+    <workbookView xWindow="1365" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{8143E680-549F-46F0-B77E-A70799F379B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PCB Name:</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Field=Designer</t>
+  </si>
+  <si>
+    <t>Column=APSS Standard Part</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B358C88E-7CF8-41D0-B20D-DBF0AE37A859}">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,10 +648,11 @@
     <col min="6" max="6" width="16.7265625" customWidth="1"/>
     <col min="7" max="7" width="16.26953125" customWidth="1"/>
     <col min="8" max="8" width="38.36328125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
@@ -656,7 +660,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="1" t="s">
@@ -666,7 +670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
@@ -676,7 +680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
@@ -686,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
@@ -696,7 +700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="1" t="s">
@@ -706,7 +710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
@@ -716,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -739,10 +743,13 @@
         <v>15</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -751,8 +758,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -761,8 +769,9 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -771,6 +780,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
